--- a/justgo_서버부문_협업.xlsx
+++ b/justgo_서버부문_협업.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Server_with-Flask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Projects\2018\InProgress)JustGo\Server_For-Competition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5D8ADD92-C349-4BA3-A4EC-A2A8BA42E78A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AA8853-6468-4F49-B5AD-26297D97DB0E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8085" xr2:uid="{CF3D492D-122A-4659-9351-3912638B5350}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8088" xr2:uid="{CF3D492D-122A-4659-9351-3912638B5350}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>JUST-GO 서버 협업 계획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,26 @@
   </si>
   <si>
     <t>api/user/tour-spot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/user/profile-name/:id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임 바꾸기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/user/profile-image/:id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 사진 바꾸기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,18 +547,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C325FF-0AC4-405B-AE89-9FD63A04AD30}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" customWidth="1"/>
+    <col min="3" max="3" width="27.09765625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -552,7 +572,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -564,7 +584,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -576,7 +596,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -597,7 +617,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -612,7 +632,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -631,7 +651,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -647,7 +667,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -666,7 +686,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -685,7 +705,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -704,7 +724,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -723,7 +743,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -742,29 +762,45 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -775,7 +811,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -786,7 +822,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -797,7 +833,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -808,7 +844,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -819,7 +855,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -830,7 +866,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -841,7 +877,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -852,7 +888,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -863,7 +899,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -874,7 +910,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -885,7 +921,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -896,7 +932,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -907,7 +943,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -918,7 +954,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -929,7 +965,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -940,7 +976,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -951,7 +987,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -962,7 +998,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -973,7 +1009,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -984,7 +1020,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -995,7 +1031,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1006,7 +1042,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1017,7 +1053,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1028,7 +1064,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1039,7 +1075,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1050,7 +1086,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1061,7 +1097,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1072,7 +1108,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
